--- a/wash_P/BUL.xlsx
+++ b/wash_P/BUL.xlsx
@@ -50406,19 +50406,19 @@
         <v>0</v>
       </c>
       <c r="LM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LO16" t="n">
         <v>0</v>
       </c>
       <c r="LP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR16" t="n">
         <v>0</v>
@@ -50433,16 +50433,16 @@
         <v>0</v>
       </c>
       <c r="LV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW16" t="n">
         <v>0</v>
       </c>
       <c r="LX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ16" t="n">
         <v>0</v>
@@ -50451,7 +50451,7 @@
         <v>0</v>
       </c>
       <c r="MB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC16" t="n">
         <v>0</v>
@@ -53534,19 +53534,19 @@
         <v>0</v>
       </c>
       <c r="LM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LN17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LO17" t="n">
         <v>0</v>
       </c>
       <c r="LP17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR17" t="n">
         <v>0</v>
@@ -53561,16 +53561,16 @@
         <v>0</v>
       </c>
       <c r="LV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW17" t="n">
         <v>0</v>
       </c>
       <c r="LX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ17" t="n">
         <v>0</v>
@@ -53579,7 +53579,7 @@
         <v>0</v>
       </c>
       <c r="MB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC17" t="n">
         <v>0</v>
